--- a/gis/data/streams_DVFI.xlsx
+++ b/gis/data/streams_DVFI.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06003066-D0E4-4F2F-9C2D-10D1256348C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EF9DF7-C8D0-48B9-84B1-3E515EC9B902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hent data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 

--- a/gis/data/streams_DVFI.xlsx
+++ b/gis/data/streams_DVFI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B309CD-41C3-4F28-888B-96006BAD89C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD18641-8D4C-4A09-A08A-0A8302CD7503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -437,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,16 +589,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2972"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
